--- a/example_2_folder/example_2_base/main_results.xlsx
+++ b/example_2_folder/example_2_base/main_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simva\OneDrive\Documents\1 Master 2\Mémoire\code\memoire_partage_elec\example_2_folder\example_2_base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F60D5F-BCE8-46B0-B044-0D0B25F307B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B89F4EE-2F2C-4CCD-AB28-8429697ED8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="74">
   <si>
     <t>Bills without sharing</t>
   </si>
@@ -228,6 +228,33 @@
   </si>
   <si>
     <t>grand</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>peb</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>heating per area</t>
+  </si>
+  <si>
+    <t>min a</t>
+  </si>
+  <si>
+    <t>max a</t>
+  </si>
+  <si>
+    <t>min b</t>
+  </si>
+  <si>
+    <t>max b</t>
   </si>
 </sst>
 </file>
@@ -571,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" topLeftCell="AM13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AU36" sqref="AU36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3480,6 +3507,81 @@
       <c r="AM18">
         <v>1413078.4534084939</v>
       </c>
+      <c r="AQ18" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS18" t="s">
+        <v>1</v>
+      </c>
+      <c r="AT18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AU18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AV18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AW18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX18" t="s">
+        <v>68</v>
+      </c>
+      <c r="AY18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AZ18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BA18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BB18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BC18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BD18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BE18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BF18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BG18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BH18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BI18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BJ18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BK18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BL18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BM18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BN18" t="s">
+        <v>68</v>
+      </c>
+      <c r="BO18" t="s">
+        <v>67</v>
+      </c>
+      <c r="BP18" t="s">
+        <v>68</v>
+      </c>
       <c r="BR18">
         <v>1587079.25</v>
       </c>
@@ -3568,6 +3670,81 @@
       </c>
       <c r="AM19">
         <v>1890479.0812714291</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>65</v>
+      </c>
+      <c r="AS19">
+        <v>60</v>
+      </c>
+      <c r="AT19">
+        <v>100</v>
+      </c>
+      <c r="AU19">
+        <v>120</v>
+      </c>
+      <c r="AV19">
+        <v>150</v>
+      </c>
+      <c r="AW19">
+        <v>250</v>
+      </c>
+      <c r="AX19">
+        <v>120</v>
+      </c>
+      <c r="AY19">
+        <v>60</v>
+      </c>
+      <c r="AZ19">
+        <v>80</v>
+      </c>
+      <c r="BA19">
+        <v>100</v>
+      </c>
+      <c r="BB19">
+        <v>80</v>
+      </c>
+      <c r="BC19">
+        <v>120</v>
+      </c>
+      <c r="BD19">
+        <v>150</v>
+      </c>
+      <c r="BE19">
+        <v>250</v>
+      </c>
+      <c r="BF19">
+        <v>66</v>
+      </c>
+      <c r="BG19">
+        <v>100</v>
+      </c>
+      <c r="BH19">
+        <v>75</v>
+      </c>
+      <c r="BI19">
+        <v>110</v>
+      </c>
+      <c r="BJ19">
+        <v>120</v>
+      </c>
+      <c r="BK19">
+        <v>120</v>
+      </c>
+      <c r="BL19">
+        <v>150</v>
+      </c>
+      <c r="BM19">
+        <v>250</v>
+      </c>
+      <c r="BN19">
+        <v>66</v>
+      </c>
+      <c r="BO19">
+        <v>80</v>
+      </c>
+      <c r="BP19">
+        <v>90</v>
       </c>
       <c r="BR19">
         <v>3038237.5</v>
@@ -4459,6 +4636,113 @@
         <f t="shared" si="19"/>
         <v>177.23072363203107</v>
       </c>
+      <c r="AQ31" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>67</v>
+      </c>
+      <c r="AS31">
+        <f>AS8/AS19</f>
+        <v>20734.733317478549</v>
+      </c>
+      <c r="AT31">
+        <f t="shared" ref="AT31:BP31" si="20">AT8/AT19</f>
+        <v>16941.811704775722</v>
+      </c>
+      <c r="AU31">
+        <f t="shared" si="20"/>
+        <v>13475.792255905288</v>
+      </c>
+      <c r="AW31">
+        <f t="shared" si="20"/>
+        <v>6115.4972483351303</v>
+      </c>
+      <c r="AY31">
+        <f t="shared" si="20"/>
+        <v>20556.293271717717</v>
+      </c>
+      <c r="BC31">
+        <f t="shared" si="20"/>
+        <v>5017.7340868111442</v>
+      </c>
+      <c r="BE31">
+        <f t="shared" si="20"/>
+        <v>2732.2739806989171</v>
+      </c>
+      <c r="BF31">
+        <f t="shared" si="20"/>
+        <v>17260.018971833608</v>
+      </c>
+      <c r="BI31">
+        <f t="shared" si="20"/>
+        <v>9881.0364249275735</v>
+      </c>
+      <c r="BK31">
+        <f t="shared" si="20"/>
+        <v>10535.100301755176</v>
+      </c>
+      <c r="BL31">
+        <f t="shared" si="20"/>
+        <v>5995.5855375854417</v>
+      </c>
+      <c r="BM31">
+        <f t="shared" si="20"/>
+        <v>7057.6606899565695</v>
+      </c>
+      <c r="BO31">
+        <f t="shared" si="20"/>
+        <v>12365.895171267219</v>
+      </c>
+    </row>
+    <row r="32" spans="1:76" x14ac:dyDescent="0.3">
+      <c r="AR32" t="s">
+        <v>68</v>
+      </c>
+      <c r="AV32">
+        <f t="shared" ref="AT32:BP32" si="21">AV8/AV19</f>
+        <v>23716.823362244551</v>
+      </c>
+      <c r="AX32">
+        <f t="shared" si="21"/>
+        <v>12790.582480179959</v>
+      </c>
+      <c r="AZ32">
+        <f t="shared" si="21"/>
+        <v>25823.843422593603</v>
+      </c>
+      <c r="BA32">
+        <f t="shared" si="21"/>
+        <v>40144.727735222863</v>
+      </c>
+      <c r="BB32">
+        <f t="shared" si="21"/>
+        <v>39056.957216258503</v>
+      </c>
+      <c r="BD32">
+        <f t="shared" si="21"/>
+        <v>13361.590626618528</v>
+      </c>
+      <c r="BG32">
+        <f t="shared" si="21"/>
+        <v>13104.636960718548</v>
+      </c>
+      <c r="BH32">
+        <f t="shared" si="21"/>
+        <v>42231.762510452078</v>
+      </c>
+      <c r="BJ32">
+        <f t="shared" si="21"/>
+        <v>16559.236246663615</v>
+      </c>
+      <c r="BN32">
+        <f t="shared" si="21"/>
+        <v>58456.958991438914</v>
+      </c>
+      <c r="BP32">
+        <f t="shared" si="21"/>
+        <v>40189.456706694953</v>
+      </c>
     </row>
     <row r="33" spans="2:57" x14ac:dyDescent="0.3">
       <c r="B33">
@@ -4480,6 +4764,20 @@
         <f>AVERAGE(M29:O29)</f>
         <v>0.11980584990555755</v>
       </c>
+      <c r="AR33" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS33">
+        <v>2732.3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:57" x14ac:dyDescent="0.3">
+      <c r="AR34" t="s">
+        <v>71</v>
+      </c>
+      <c r="AS34">
+        <v>20734.73</v>
+      </c>
     </row>
     <row r="35" spans="2:57" x14ac:dyDescent="0.3">
       <c r="H35" t="s">
@@ -4494,6 +4792,12 @@
       <c r="K35">
         <v>131.19999999999999</v>
       </c>
+      <c r="AR35" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS35">
+        <v>12790</v>
+      </c>
     </row>
     <row r="36" spans="2:57" x14ac:dyDescent="0.3">
       <c r="H36" t="s">
@@ -4508,148 +4812,154 @@
       <c r="K36">
         <v>263.3</v>
       </c>
+      <c r="AR36" t="s">
+        <v>73</v>
+      </c>
+      <c r="AS36">
+        <v>58456</v>
+      </c>
     </row>
     <row r="39" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE39">
-        <f t="shared" ref="BE39:BE62" si="20">AVERAGE(BV3:BX3)</f>
+        <f t="shared" ref="BE39:BE62" si="22">AVERAGE(BV3:BX3)</f>
         <v>1244083.9990487129</v>
       </c>
     </row>
     <row r="40" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1694181.1704775721</v>
       </c>
     </row>
     <row r="41" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE41">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1617095.0707086346</v>
       </c>
     </row>
     <row r="42" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE42">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3557523.5043366826</v>
       </c>
     </row>
     <row r="43" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE43">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1528874.3120837826</v>
       </c>
     </row>
     <row r="44" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE44">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1534869.8976215951</v>
       </c>
     </row>
     <row r="45" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE45">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1233377.596303063</v>
       </c>
     </row>
     <row r="46" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE46">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2065907.4738074883</v>
       </c>
     </row>
     <row r="47" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE47">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>4014472.7735222862</v>
       </c>
     </row>
     <row r="48" spans="2:57" x14ac:dyDescent="0.3">
       <c r="BE48">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3124556.5773006803</v>
       </c>
     </row>
     <row r="49" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE49">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>602128.09041733725</v>
       </c>
     </row>
     <row r="50" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE50">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>2004238.5939927793</v>
       </c>
     </row>
     <row r="51" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE51">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>683068.49517472927</v>
       </c>
     </row>
     <row r="52" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE52">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1139161.2521410182</v>
       </c>
     </row>
     <row r="53" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE53">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1310463.6960718548</v>
       </c>
     </row>
     <row r="54" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE54">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3167382.1882839059</v>
       </c>
     </row>
     <row r="55" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE55">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1086914.0067420332</v>
       </c>
     </row>
     <row r="56" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE56">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1987108.3495996336</v>
       </c>
     </row>
     <row r="57" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE57">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1264212.036210621</v>
       </c>
     </row>
     <row r="58" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE58">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>899337.83063781622</v>
       </c>
     </row>
     <row r="59" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE59">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>1764415.1724891423</v>
       </c>
     </row>
     <row r="60" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE60">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3858159.2934349682</v>
       </c>
     </row>
     <row r="61" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE61">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>989271.61370137753</v>
       </c>
     </row>
     <row r="62" spans="57:57" x14ac:dyDescent="0.3">
       <c r="BE62">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>3617051.1036025458</v>
       </c>
     </row>
